--- a/django_project/dictionarytwets.xlsx
+++ b/django_project/dictionarytwets.xlsx
@@ -25,60 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>words</t>
   </si>
   <si>
-    <t>covid-19</t>
+    <t>ispr</t>
   </si>
   <si>
-    <t>covid 19</t>
-  </si>
-  <si>
-    <t>coronavirus</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pakistan </t>
-  </si>
-  <si>
-    <t>kpk</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>lock down</t>
-  </si>
-  <si>
-    <t>put off</t>
-  </si>
-  <si>
-    <t>look down on</t>
-  </si>
-  <si>
-    <t>Epidemic</t>
-  </si>
-  <si>
-    <t>Lockdown</t>
-  </si>
-  <si>
-    <t>Social Distancing</t>
-  </si>
-  <si>
-    <t>Self-Isolation</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>PPE</t>
-  </si>
-  <si>
-    <t>Quarantine</t>
+    <t>PakArmy</t>
   </si>
 </sst>
 </file>
@@ -122,11 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,12 +372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -434,89 +386,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="https://www.macmillanthesaurus.com/lock-down"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.macmillanthesaurus.com/put-off"/>
-    <hyperlink ref="A11" r:id="rId3" display="https://www.macmillanthesaurus.com/look-down-on"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
